--- a/外部設計.xlsx
+++ b/外部設計.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\stormy-weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64392AB-7D80-4095-B81A-DCDAB687CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD78AA-0B27-49FE-8AC3-D8E7D818227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27810" yWindow="780" windowWidth="24945" windowHeight="19230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4965" windowWidth="21600" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概略" sheetId="2" r:id="rId1"/>
-    <sheet name="画面案" sheetId="1" r:id="rId2"/>
+    <sheet name="データフロー" sheetId="3" r:id="rId2"/>
+    <sheet name="画面案" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>荒天選択</t>
     <rPh sb="0" eb="2">
@@ -280,6 +281,132 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://database.rish.kyoto-u.ac.jp/arch/jmadata/data/gpv/original/</t>
+  </si>
+  <si>
+    <t>gpv実況データ</t>
+    <rPh sb="3" eb="5">
+      <t>ジッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①pythonで直接解析・作画</t>
+    <rPh sb="8" eb="10">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②gpv -&gt; netcdf -&gt; GMT -&gt; 作画</t>
+    <rPh sb="25" eb="27">
+      <t>サクガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送</t>
+    <rPh sb="0" eb="2">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(sqlite)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強風</t>
+    <rPh sb="0" eb="2">
+      <t>キョウフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竜巻</t>
+    <rPh sb="0" eb="2">
+      <t>タツマキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19xx/06/xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19xx/10/xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20xx/10/xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20xx/08/xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ検索</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEB画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -334,12 +461,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -486,13 +619,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -500,13 +632,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -525,6 +657,191 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 下 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE68D0E-6864-6249-2A25-79533D1A48B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="1247775"/>
+          <a:ext cx="247650" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 下 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409B834B-EBC7-424F-9596-86028551EFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7791450" y="2667000"/>
+          <a:ext cx="247650" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 下 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADBA22D-695C-4303-80FD-3F90AF894992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7781925" y="3381375"/>
+          <a:ext cx="247650" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -917,7 +1234,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -979,6 +1296,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078EB5E-27E0-4874-92E1-66D8C8821A62}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="12" max="13" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="L5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="L6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="L8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="L9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13">
+      <c r="L17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="12:13">
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="12:13">
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="12:13">
+      <c r="L20" s="4"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="12:13">
+      <c r="L21" s="4"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="12:13">
+      <c r="L22" s="6"/>
+      <c r="M22" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
@@ -998,23 +1487,23 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="2"/>
@@ -1025,30 +1514,27 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="4"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="10"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1065,64 +1551,34 @@
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="5"/>
       <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1130,512 +1586,297 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="2:18" ht="20.25" customHeight="1">
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="2:18" ht="20.25" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="5"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
       <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="5"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="5"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="5"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="6"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="6"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="6"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="6"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="6"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="6"/>
+      <c r="R28" s="5"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="9"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="6"/>
+      <c r="R30" s="5"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="12" t="s">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="6"/>
+      <c r="R31" s="5"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="9"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/外部設計.xlsx
+++ b/外部設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\stormy-weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD78AA-0B27-49FE-8AC3-D8E7D818227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A3666-AB35-427F-9A2D-8B2E267DDBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4965" windowWidth="21600" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4965" windowWidth="21600" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概略" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>荒天選択</t>
     <rPh sb="0" eb="2">
@@ -285,10 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GPV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://database.rish.kyoto-u.ac.jp/arch/jmadata/data/gpv/original/</t>
   </si>
   <si>
@@ -409,6 +405,135 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像選択</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③他の画像を使用</t>
+    <rPh sb="1" eb="2">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①または②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時起動</t>
+    <rPh sb="0" eb="4">
+      <t>テイジキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gpvデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実況データ</t>
+    <rPh sb="0" eb="2">
+      <t>ジッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽出</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wgrib2または</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタムプログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPV(GSM, MSM)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[データ取得]</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の天気図</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>テンキズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.data.jma.go.jp/fcd/yoho/wxchart/quickmonthly.html</t>
+  </si>
+  <si>
+    <t>https://www.jma.go.jp/bosai/numericmap/#type=upper</t>
+  </si>
+  <si>
+    <t>高層天気図（現在のみ）</t>
+    <rPh sb="0" eb="5">
+      <t>コウソウテンキズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短期予報解説資料（現在のみ）</t>
+    <rPh sb="0" eb="8">
+      <t>タンキヨホウカイセツシリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.data.jma.go.jp/fcd/yoho/data/jishin/kaisetsu_tanki_latest.pdf</t>
   </si>
 </sst>
 </file>
@@ -619,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -639,6 +764,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -662,13 +788,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -728,8 +854,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -745,7 +871,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="7791450" y="2667000"/>
-          <a:ext cx="247650" cy="419100"/>
+          <a:ext cx="247650" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -780,32 +906,92 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矢印: 下 3">
+        <xdr:cNvPr id="5" name="矢印: 下 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADBA22D-695C-4303-80FD-3F90AF894992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C0C66-79D9-48BD-8A89-C962DC42E65B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="7781925" y="3381375"/>
-          <a:ext cx="247650" cy="419100"/>
+        <a:xfrm rot="5400000">
+          <a:off x="6391275" y="2895600"/>
+          <a:ext cx="247650" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 下 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5811B0F8-6936-4262-903E-E38E7A31E76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="9344025"/>
+          <a:ext cx="247650" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1233,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6218F9C5-2FEA-42B7-A233-67DDABB51600}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1297,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078EB5E-27E0-4874-92E1-66D8C8821A62}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1313,93 +1499,64 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5"/>
       <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="L5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="N5" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="L6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
       <c r="L7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="L8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="L9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="E9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="L9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>4</v>
@@ -1416,49 +1573,215 @@
       <c r="N11" s="11"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="E13" s="1" t="s">
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="L15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="L14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="12:13">
-      <c r="L17" s="1" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="5"/>
+      <c r="L17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="12:13">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="E18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="12:13">
+    <row r="19" spans="2:13">
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="12:13">
-      <c r="L20" s="4"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="12:13">
-      <c r="L21" s="4"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="12:13">
-      <c r="L22" s="6"/>
-      <c r="M22" s="8"/>
+    <row r="20" spans="2:13">
+      <c r="L20" s="6"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="E29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="E33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/外部設計.xlsx
+++ b/外部設計.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\stormy-weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A3666-AB35-427F-9A2D-8B2E267DDBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0931EE71-A86B-4EAB-B573-1C23581710D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4965" windowWidth="21600" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31140" yWindow="2130" windowWidth="21600" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概略" sheetId="2" r:id="rId1"/>
-    <sheet name="データフロー" sheetId="3" r:id="rId2"/>
-    <sheet name="画面案" sheetId="1" r:id="rId3"/>
+    <sheet name="サーバ" sheetId="4" r:id="rId2"/>
+    <sheet name="データフロー" sheetId="3" r:id="rId3"/>
+    <sheet name="画面案" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>荒天選択</t>
     <rPh sb="0" eb="2">
@@ -534,6 +535,138 @@
   </si>
   <si>
     <t>https://www.data.jma.go.jp/fcd/yoho/data/jishin/kaisetsu_tanki_latest.pdf</t>
+  </si>
+  <si>
+    <t>[作画]</t>
+    <rPh sb="1" eb="3">
+      <t>サクガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pythonでgrib2データから画像を直接生成する方法</t>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>チョクセツセイセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/mhangyo/items/f06debce3975a269a658</t>
+  </si>
+  <si>
+    <t>pygrib, matplotlib等を使用する。</t>
+    <rPh sb="18" eb="19">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/mhangyo/items/8494a8039973ba220ce5</t>
+  </si>
+  <si>
+    <t>(環境構築)</t>
+    <rPh sb="1" eb="5">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(作画)</t>
+    <rPh sb="1" eb="3">
+      <t>サクガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境構築</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作画サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>サクガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># yum -y install git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># yum -y install curl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># yum -y install zlib1g-dev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># yum -y install libssl-d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># yum install gcc zlib-devel bzip2 bzip2-devel readline readline-devel sqlite sqlite-devel openssl openssl-devel git libffi-devel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ git clone https://github.com/pyenv/pyenv.git ~/.pyenv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ echo 'export PATH="$HOME/.pyenv/bin:$PATH"' &gt;&gt; ~/.bash_profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ echo 'eval "$(pyenv init -)"' &gt;&gt; ~/.bash_profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ source ~/.bash_profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pyenv install   anaconda3-2022.05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pyenv global anaconda3-2022.05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pyenv rehash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ conda update -y conda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pip install --upgrade pip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ conda install -c conda-forge pygrib=2.0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ conda install -c conda-forge jpeg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -744,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -764,7 +897,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1420,7 +1552,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1482,11 +1614,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8011670B-76B1-415E-AC17-E2F218A10329}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078EB5E-27E0-4874-92E1-66D8C8821A62}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="B4:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1494,12 +1732,7 @@
     <col min="12" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="5:14">
       <c r="L4" t="s">
         <v>42</v>
       </c>
@@ -1507,7 +1740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="5:14">
       <c r="L5" s="18" t="s">
         <v>43</v>
       </c>
@@ -1518,7 +1751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="5:14">
       <c r="L6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1529,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="5:14">
       <c r="L7" s="11" t="s">
         <v>50</v>
       </c>
@@ -1540,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="5:14">
       <c r="L8" s="11" t="s">
         <v>51</v>
       </c>
@@ -1551,7 +1784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="5:14">
       <c r="L9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1562,28 +1795,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="5:14">
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="5:14">
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="5:14">
       <c r="M13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="5:14">
       <c r="L15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="5:14">
       <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1597,8 +1830,6 @@
       <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
       <c r="H17" s="5"/>
       <c r="L17" s="4" t="s">
         <v>58</v>
@@ -1727,48 +1958,24 @@
       <c r="B37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9">
@@ -1783,6 +1990,42 @@
       <c r="H41" s="7"/>
       <c r="I41" s="8"/>
     </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1790,7 +2033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>

--- a/外部設計.xlsx
+++ b/外部設計.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\stormy-weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0931EE71-A86B-4EAB-B573-1C23581710D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDB0A76-5D16-4E4B-A01E-27199984DA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31140" yWindow="2130" windowWidth="21600" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4035" windowWidth="21600" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概略" sheetId="2" r:id="rId1"/>
     <sheet name="サーバ" sheetId="4" r:id="rId2"/>
-    <sheet name="データフロー" sheetId="3" r:id="rId3"/>
-    <sheet name="画面案" sheetId="1" r:id="rId4"/>
+    <sheet name="サンプルプログラム" sheetId="5" r:id="rId3"/>
+    <sheet name="データフロー" sheetId="3" r:id="rId4"/>
+    <sheet name="画面案" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="178">
   <si>
     <t>荒天選択</t>
     <rPh sb="0" eb="2">
@@ -653,27 +654,271 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$ conda update -y conda</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$ pip install --upgrade pip</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$ conda install -c conda-forge pygrib=2.0.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$ conda install -c conda-forge jpeg</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ conda update --all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ conda install -c conda-forge pygrib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中でフリーズする</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pip3 install pygrib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題なし</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grib2読み込みサンプル</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from datetime import timedelta</t>
+  </si>
+  <si>
+    <t>import pygrib</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>time_diff = timedelta(hours=9)</t>
+  </si>
+  <si>
+    <t>gpv_file = pygrib.open("Z__C_RJTD_20171205000000_MSM_GPV_Rjp_Lsurf_FH00-15_grib2.bin")</t>
+  </si>
+  <si>
+    <t>t_messages = gpv_file.select(name="Temperature")</t>
+  </si>
+  <si>
+    <t>df = pd.DataFrame({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "validDate": [msg.validDate + time_diff for msg in t_messages],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "temperature": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        msg.data(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            lat1=35.6745-0.025,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            lat2=35.6745+0.025,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            lon1=139.7169-0.03125,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            lon2=139.7169+0.03125,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        )[0][0][0] - 273.15 for msg in t_messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <t>print(df)</t>
+  </si>
+  <si>
+    <t>実行結果</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[devel@localhost test]$ python test.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             validDate  temperature</t>
+  </si>
+  <si>
+    <t>0  2017-12-05 09:00:00     9.810709</t>
+  </si>
+  <si>
+    <t>1  2017-12-05 10:00:00    11.409219</t>
+  </si>
+  <si>
+    <t>2  2017-12-05 11:00:00    12.358789</t>
+  </si>
+  <si>
+    <t>3  2017-12-05 12:00:00    13.116861</t>
+  </si>
+  <si>
+    <t>4  2017-12-05 13:00:00    13.770517</t>
+  </si>
+  <si>
+    <t>5  2017-12-05 14:00:00    14.698541</t>
+  </si>
+  <si>
+    <t>6  2017-12-05 15:00:00    14.488687</t>
+  </si>
+  <si>
+    <t>7  2017-12-05 16:00:00    13.063196</t>
+  </si>
+  <si>
+    <t>8  2017-12-05 17:00:00    11.467722</t>
+  </si>
+  <si>
+    <t>9  2017-12-05 18:00:00    10.320886</t>
+  </si>
+  <si>
+    <t>10 2017-12-05 19:00:00     9.592111</t>
+  </si>
+  <si>
+    <t>11 2017-12-05 20:00:00     8.797952</t>
+  </si>
+  <si>
+    <t>12 2017-12-05 21:00:00     8.171686</t>
+  </si>
+  <si>
+    <t>13 2017-12-05 22:00:00     7.832407</t>
+  </si>
+  <si>
+    <t>14 2017-12-05 23:00:00     7.461450</t>
+  </si>
+  <si>
+    <t>15 2017-12-06 00:00:00     6.884409</t>
+  </si>
+  <si>
+    <t>https://qiita.com/kurukuruz/items/6fc0be9efa34a2fd6741</t>
+  </si>
+  <si>
+    <t>画像化サンプル</t>
+    <rPh sb="0" eb="3">
+      <t>ガゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pip3 install basemap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import matplotlib</t>
+  </si>
+  <si>
+    <t>matplotlib.use('Agg') # サーバーでx環境がない場合などはこれがないとmatplotlibが動かない</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+  </si>
+  <si>
+    <t>import numpy as np</t>
+  </si>
+  <si>
+    <t>import math</t>
+  </si>
+  <si>
+    <t>from mpl_toolkits.basemap import Basemap</t>
+  </si>
+  <si>
+    <t>grbs = pygrib.open('./Z__C_RJTD_20171205000000_MSM_GPV_Rjp_Lsurf_FH00-15_grib2.bin')</t>
+  </si>
+  <si>
+    <t># selectメソッドで指定した要素(forecastTime=0)にマッチする要素の配列が返ってくる。</t>
+  </si>
+  <si>
+    <t># forecastTime=0の要素は複数あるが先頭([0])は海面更生気圧(mslp)が入っている</t>
+  </si>
+  <si>
+    <t>grb = grbs.select(forecastTime=0)[0]</t>
+  </si>
+  <si>
+    <t># lats,lonsは二次元配列で緯度経度が入っている</t>
+  </si>
+  <si>
+    <t>lats, lons = grb.latlons()</t>
+  </si>
+  <si>
+    <t># 中に含まれているデータ(海面更生気圧)を二次元のndarrayで取り出す</t>
+  </si>
+  <si>
+    <t>mslp = grb.values</t>
+  </si>
+  <si>
+    <t># 等圧線をひく間隔をlevelsにリストとして入れる</t>
+  </si>
+  <si>
+    <t># MSLPの単位はPaなので、2hPaごとに線をひく場合、200おきに線をひくことになる。</t>
+  </si>
+  <si>
+    <t>levels = range(math.floor(mslp.min()/100)*100, math.ceil(mslp.max()/100)*100+1,200)</t>
+  </si>
+  <si>
+    <t># lat,lonを一次元に変換</t>
+  </si>
+  <si>
+    <t># 何故か二次元のままでは描画できない</t>
+  </si>
+  <si>
+    <t>flat_lats= np.ravel(lats)</t>
+  </si>
+  <si>
+    <t>flat_lons= np.ravel(lons)</t>
+  </si>
+  <si>
+    <t>fig = plt.figure()</t>
+  </si>
+  <si>
+    <t># マップを作成。4つのパラメータは描画する範囲の指定</t>
+  </si>
+  <si>
+    <t>m = Basemap(llcrnrlat=lats.min(),urcrnrlat=lats.max(), llcrnrlon=lons.min(),urcrnrlon=lons.max())</t>
+  </si>
+  <si>
+    <t># 等圧線をひく</t>
+  </si>
+  <si>
+    <t>m.contour(flat_lons, flat_lats,mslp,latlon=True,tri=True,levels=levels)</t>
+  </si>
+  <si>
+    <t># 海岸線をひく</t>
+  </si>
+  <si>
+    <t>m.drawcoastlines()</t>
+  </si>
+  <si>
+    <t>fig.savefig('./mslp.png')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +961,30 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -877,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -897,6 +1166,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -915,6 +1189,170 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF246CA-E5C8-452A-A9C2-730CBD864165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="8191500"/>
+          <a:ext cx="666750" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852A18D2-10AE-409B-9218-5C1AB9FAFD1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="12715875"/>
+          <a:ext cx="666750" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6095238" cy="4571429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DC8D58-6099-40F0-B9A8-094A9F476207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="11534775"/>
+          <a:ext cx="6095238" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1159,7 +1597,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1551,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6218F9C5-2FEA-42B7-A233-67DDABB51600}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1615,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8011670B-76B1-415E-AC17-E2F218A10329}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1693,25 +2131,48 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1720,6 +2181,1028 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0D4203-1BFD-4B4B-8287-613EB3E72E8B}">
+  <dimension ref="A1:Q66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="5"/>
+      <c r="M4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="4"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="5"/>
+      <c r="M5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="5"/>
+      <c r="M6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="4"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="5"/>
+      <c r="M8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="5"/>
+      <c r="M9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="4"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="5"/>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="5"/>
+      <c r="M15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="5"/>
+      <c r="M16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="5"/>
+      <c r="M17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="B18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="5"/>
+      <c r="M18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="5"/>
+      <c r="M19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="4"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="5"/>
+      <c r="L30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="4"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="4"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="4"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="4"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="4"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="4"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="4"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="4"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="4"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="4"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="4"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078EB5E-27E0-4874-92E1-66D8C8821A62}">
   <dimension ref="B4:N48"/>
   <sheetViews>
@@ -2033,11 +3516,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>

--- a/外部設計.xlsx
+++ b/外部設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\stormy-weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDB0A76-5D16-4E4B-A01E-27199984DA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F18662-AA1E-45B3-93C2-3A01DCF26A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4035" windowWidth="21600" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="21600" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概略" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="286">
   <si>
     <t>荒天選択</t>
     <rPh sb="0" eb="2">
@@ -912,6 +912,352 @@
   </si>
   <si>
     <t>fig.savefig('./mslp.png')</t>
+  </si>
+  <si>
+    <t>実況データの抽出</t>
+    <rPh sb="0" eb="2">
+      <t>ジッキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1:0:d=2017120500:PRMSL:mean sea level:anl:</t>
+  </si>
+  <si>
+    <t>1.2:0:d=2017120500:PRES:surface:anl:</t>
+  </si>
+  <si>
+    <t>1.3:0:d=2017120500:UGRD:10 m above ground:anl:</t>
+  </si>
+  <si>
+    <t>1.4:0:d=2017120500:VGRD:10 m above ground:anl:</t>
+  </si>
+  <si>
+    <t>1.5:0:d=2017120500:TMP:1.5 m above ground:anl:</t>
+  </si>
+  <si>
+    <t>1.6:0:d=2017120500:RH:1.5 m above ground:anl:</t>
+  </si>
+  <si>
+    <t>1.7:0:d=2017120500:LCDC:surface:anl:</t>
+  </si>
+  <si>
+    <t>1.8:0:d=2017120500:MCDC:surface:anl:</t>
+  </si>
+  <si>
+    <t>1.9:0:d=2017120500:HCDC:surface:anl:</t>
+  </si>
+  <si>
+    <t>1.10:0:d=2017120500:TCDC:surface:anl:</t>
+  </si>
+  <si>
+    <t>1.21:0:d=2017120500:APCP:surface:0-1 hour acc fcst:</t>
+  </si>
+  <si>
+    <t>wgrib2 Z__C_RJTD_20171205000000_MSM_GPV_Rjp_Lsurf_FH00-15_grib2.bin -match ":(anl|0-1 hour acc fcst):" -grib MSM_2017120500_SURF_ANL.grib2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wgrib2 Z__C_RJTD_20171205000000_MSM_GPV_Rjp_L-pall_FH00-15_grib2.bin -match ":anl:" -grib MSM_2017120500_PALL_ANL.bin</t>
+  </si>
+  <si>
+    <t>1.1:0:d=2017120500:HGT:1000 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.2:0:d=2017120500:UGRD:1000 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.3:0:d=2017120500:VGRD:1000 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.4:0:d=2017120500:TMP:1000 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.5:0:d=2017120500:VVEL:1000 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.6:0:d=2017120500:RH:1000 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.7:0:d=2017120500:HGT:975 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.8:0:d=2017120500:UGRD:975 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.9:0:d=2017120500:VGRD:975 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.10:0:d=2017120500:TMP:975 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.11:0:d=2017120500:VVEL:975 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.12:0:d=2017120500:RH:975 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.13:0:d=2017120500:HGT:950 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.14:0:d=2017120500:UGRD:950 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.15:0:d=2017120500:VGRD:950 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.16:0:d=2017120500:TMP:950 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.17:0:d=2017120500:VVEL:950 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.18:0:d=2017120500:RH:950 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.19:0:d=2017120500:HGT:925 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.20:0:d=2017120500:UGRD:925 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.21:0:d=2017120500:VGRD:925 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.22:0:d=2017120500:TMP:925 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.23:0:d=2017120500:VVEL:925 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.24:0:d=2017120500:RH:925 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.25:0:d=2017120500:HGT:900 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.26:0:d=2017120500:UGRD:900 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.27:0:d=2017120500:VGRD:900 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.28:0:d=2017120500:TMP:900 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.29:0:d=2017120500:VVEL:900 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.30:0:d=2017120500:RH:900 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.31:0:d=2017120500:HGT:850 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.32:0:d=2017120500:UGRD:850 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.33:0:d=2017120500:VGRD:850 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.34:0:d=2017120500:TMP:850 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.35:0:d=2017120500:VVEL:850 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.36:0:d=2017120500:RH:850 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.37:0:d=2017120500:HGT:800 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.38:0:d=2017120500:UGRD:800 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.39:0:d=2017120500:VGRD:800 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.40:0:d=2017120500:TMP:800 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.41:0:d=2017120500:VVEL:800 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.42:0:d=2017120500:RH:800 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.43:0:d=2017120500:HGT:700 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.44:0:d=2017120500:UGRD:700 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.45:0:d=2017120500:VGRD:700 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.46:0:d=2017120500:TMP:700 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.47:0:d=2017120500:VVEL:700 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.48:0:d=2017120500:RH:700 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.49:0:d=2017120500:HGT:600 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.50:0:d=2017120500:UGRD:600 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.51:0:d=2017120500:VGRD:600 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.52:0:d=2017120500:TMP:600 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.53:0:d=2017120500:VVEL:600 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.54:0:d=2017120500:RH:600 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.55:0:d=2017120500:HGT:500 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.56:0:d=2017120500:UGRD:500 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.57:0:d=2017120500:VGRD:500 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.58:0:d=2017120500:TMP:500 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.59:0:d=2017120500:VVEL:500 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.60:0:d=2017120500:RH:500 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.61:0:d=2017120500:HGT:400 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.62:0:d=2017120500:UGRD:400 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.63:0:d=2017120500:VGRD:400 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.64:0:d=2017120500:TMP:400 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.65:0:d=2017120500:VVEL:400 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.66:0:d=2017120500:RH:400 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.67:0:d=2017120500:HGT:300 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.68:0:d=2017120500:UGRD:300 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.69:0:d=2017120500:VGRD:300 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.70:0:d=2017120500:TMP:300 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.71:0:d=2017120500:VVEL:300 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.72:0:d=2017120500:RH:300 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.73:0:d=2017120500:HGT:250 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.74:0:d=2017120500:UGRD:250 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.75:0:d=2017120500:VGRD:250 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.76:0:d=2017120500:TMP:250 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.77:0:d=2017120500:VVEL:250 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.78:0:d=2017120500:HGT:200 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.79:0:d=2017120500:UGRD:200 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.80:0:d=2017120500:VGRD:200 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.81:0:d=2017120500:TMP:200 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.82:0:d=2017120500:VVEL:200 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.83:0:d=2017120500:HGT:150 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.84:0:d=2017120500:UGRD:150 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.85:0:d=2017120500:VGRD:150 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.86:0:d=2017120500:TMP:150 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.87:0:d=2017120500:VVEL:150 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.88:0:d=2017120500:HGT:100 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.89:0:d=2017120500:UGRD:100 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.90:0:d=2017120500:VGRD:100 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.91:0:d=2017120500:TMP:100 mb:anl:</t>
+  </si>
+  <si>
+    <t>1.92:0:d=2017120500:VVEL:100 mb:anl:</t>
+  </si>
+  <si>
+    <t>1回13Mbyteとして、1日8回で104Mbyte</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30日で104*30=30120Mbyte = 30Gbyte</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1313,11 +1659,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>14753</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6095238" cy="4571429"/>
+    <xdr:ext cx="5513281" cy="4571429"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
@@ -1332,15 +1678,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="11534775"/>
-          <a:ext cx="6095238" cy="4571429"/>
+          <a:off x="8244353" y="5838825"/>
+          <a:ext cx="5513281" cy="4571429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1349,6 +1700,286 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507F84B6-5146-406B-A1EA-4E01417ED386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2200275" y="16559214"/>
+          <a:ext cx="395285" cy="138112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA006FF-6E72-2022-5D01-299CFC8081EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="17545051"/>
+          <a:ext cx="1114425" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -87165"/>
+            <a:gd name="adj2" fmla="val -3323"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>69Mbyte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4Mbyte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に縮小</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E7CF3F-950D-454D-B0F5-4A0E7DE752EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2195513" y="20150138"/>
+          <a:ext cx="395285" cy="138112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E17CA3-644F-4ADF-9781-2FC2F6A98775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="21212175"/>
+          <a:ext cx="1114425" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -87165"/>
+            <a:gd name="adj2" fmla="val -3323"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>51Mbyte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8.4Mbyte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に縮小</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1989,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6218F9C5-2FEA-42B7-A233-67DDABB51600}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -2182,10 +2813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0D4203-1BFD-4B4B-8287-613EB3E72E8B}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2223,176 +2854,80 @@
       <c r="B3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
       <c r="K3" s="5"/>
       <c r="M3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
       <c r="K4" s="5"/>
       <c r="M4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="4"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
       <c r="K5" s="5"/>
       <c r="M5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
       <c r="K6" s="5"/>
       <c r="M6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="4"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
       <c r="K7" s="5"/>
       <c r="M7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
       <c r="K8" s="5"/>
       <c r="M8" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
       <c r="K9" s="5"/>
       <c r="M9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="4"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
       <c r="K10" s="5"/>
       <c r="M10" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
       <c r="K11" s="5"/>
       <c r="L11" t="s">
         <v>127</v>
@@ -2400,191 +2935,92 @@
       <c r="M11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
       <c r="K12" s="5"/>
       <c r="M12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
       <c r="K13" s="5"/>
       <c r="M13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
       <c r="K14" s="5"/>
       <c r="M14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
       <c r="K15" s="5"/>
       <c r="M15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
       <c r="K16" s="5"/>
       <c r="M16" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17">
       <c r="B17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
       <c r="K17" s="5"/>
       <c r="M17" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17">
       <c r="B18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
       <c r="K18" s="5"/>
       <c r="M18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
       <c r="K19" s="5"/>
       <c r="M19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17">
       <c r="B20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
       <c r="K20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
@@ -2596,26 +3032,10 @@
       <c r="B21" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:17">
       <c r="B22" s="4"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:17">
@@ -2658,56 +3078,24 @@
       <c r="B27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:17">
       <c r="B29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="B30" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
       <c r="K30" s="5"/>
       <c r="L30" t="s">
         <v>127</v>
@@ -2717,471 +3105,191 @@
       <c r="B31" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:17">
       <c r="B32" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="4"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="4"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="4"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="4"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="4"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="4"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="4"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="4"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="4"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="4"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="1:16">
       <c r="B65" s="4"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="1:16">
       <c r="B66" s="6" t="s">
         <v>177</v>
       </c>
@@ -3194,6 +3302,995 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="8"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="B69" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="10"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="B72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="B73" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="B74" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="B75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="B76" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="B77" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="B78" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="B79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="B80" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="10"/>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="2:6">
+      <c r="B164" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="8"/>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3206,7 +4303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078EB5E-27E0-4874-92E1-66D8C8821A62}">
   <dimension ref="B4:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
@@ -3520,7 +4617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>

--- a/外部設計.xlsx
+++ b/外部設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\stormy-weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F18662-AA1E-45B3-93C2-3A01DCF26A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837270DA-16C1-4915-8724-0493FC1D8291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="21600" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3720" windowWidth="21600" windowHeight="24135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概略" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
   <si>
     <t>荒天選択</t>
     <rPh sb="0" eb="2">
@@ -1257,6 +1257,52 @@
     <rPh sb="2" eb="3">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>djangoのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pip3 install django</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pip3 install django-boost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ pip3 install wikipedia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ django-admin startproject.djangostudy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ cd djangostudy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ python manage.py startapp djangofirst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの起動</t>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ python manage.py runserver 0.0.0.0:3000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1492,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1516,7 +1562,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2620,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6218F9C5-2FEA-42B7-A233-67DDABB51600}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2684,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8011670B-76B1-415E-AC17-E2F218A10329}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2804,6 +2849,56 @@
         <v>148</v>
       </c>
       <c r="F22" s="22"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2815,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0D4203-1BFD-4B4B-8287-613EB3E72E8B}">
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3341,90 +3436,54 @@
       <c r="B73" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:16">
       <c r="B74" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:16">
       <c r="B75" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:16">
       <c r="B76" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:16">
       <c r="B77" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:16">
       <c r="B78" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:16">
       <c r="B79" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:16">
       <c r="B80" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:14">
@@ -3467,810 +3526,540 @@
       <c r="B88" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="2:14">
       <c r="B89" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="2:14">
       <c r="B90" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="2:14">
       <c r="B91" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="2:14">
       <c r="B92" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="2:14">
       <c r="B93" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="2:14">
       <c r="B94" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="2:14">
       <c r="B95" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="2:14">
       <c r="B96" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
       <c r="F106" s="5"/>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
       <c r="F114" s="5"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
       <c r="F115" s="5"/>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
       <c r="F116" s="5"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
       <c r="F117" s="5"/>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
       <c r="F118" s="5"/>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
       <c r="F120" s="5"/>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
       <c r="F121" s="5"/>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
       <c r="F122" s="5"/>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
       <c r="F126" s="5"/>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
       <c r="F127" s="5"/>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
       <c r="F131" s="5"/>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
       <c r="F132" s="5"/>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
       <c r="F133" s="5"/>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
       <c r="F134" s="5"/>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
       <c r="F135" s="5"/>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
       <c r="F136" s="5"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
       <c r="F137" s="5"/>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
       <c r="F139" s="5"/>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
       <c r="F142" s="5"/>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
       <c r="F143" s="5"/>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
       <c r="F144" s="5"/>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
       <c r="F146" s="5"/>
     </row>
     <row r="147" spans="2:6">
       <c r="B147" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
       <c r="F149" s="5"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
       <c r="F150" s="5"/>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
       <c r="F151" s="5"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
       <c r="F152" s="5"/>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
       <c r="F153" s="5"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
       <c r="F154" s="5"/>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
       <c r="F155" s="5"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
       <c r="F157" s="5"/>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
       <c r="F158" s="5"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
       <c r="F159" s="5"/>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C160" s="23"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
       <c r="F161" s="5"/>
     </row>
     <row r="162" spans="2:6">
       <c r="B162" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="2:6">
       <c r="B163" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
       <c r="F163" s="5"/>
     </row>
     <row r="164" spans="2:6">
       <c r="B164" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
       <c r="F164" s="5"/>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="23"/>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="2:6">
       <c r="B167" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C167" s="23"/>
-      <c r="D167" s="23"/>
-      <c r="E167" s="23"/>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C168" s="23"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="23"/>
       <c r="F172" s="5"/>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C174" s="23"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
       <c r="F175" s="5"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C176" s="23"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="23"/>
       <c r="F176" s="5"/>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C177" s="23"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="2:6">
@@ -4304,7 +4093,7 @@
   <dimension ref="B4:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4617,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
